--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,94 +482,1927 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9999</t>
+          <t>PC-3723</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-02-14 08:41:18.724259</t>
+          <t>2024-03-22 00:00:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>testing1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>testing1</t>
+          <t>601-7E05-060B2307012530</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>testing1</t>
+          <t>U36H5N4500588</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>testing1</t>
+          <t>30123423036</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>testing1</t>
+          <t>30123528506</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>testing1</t>
+          <t>SALUD MENTAL INFANTIL BOX PROCEDIMIENTOS</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>testing1</t>
+          <t>ZQKP9HA000213</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>PC-3724</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-02-14 08:41:30.820206</t>
+          <t>2024-03-22 00:00:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>601-7E05-060B2307012532</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>U3TN841504188</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>30123423057</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>30123528551</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>SALUD MENTAL ASISTENTES SOCIAL</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>testing2</t>
+          <t>ZQKP9HA000134</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC-3725</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-03-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012529</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>U3TN841506417</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>30123423056</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>30123528542</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>SALUD MENTAL INFANTIL BOX 128</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000027</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC-3726</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-03-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012531</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>U36H5N4500326</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>30123423036</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>30123528550</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>SALUD MENTAL SALA ENTREVISTA</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000028</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PC-3727</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-03-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012533</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>U3UD518802912</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>30123423055</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>30123528508</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>SALUD MENTAL PASILLO GUARDIAS</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>ZQKP9HA000151</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PC-3728</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-03-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012534</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>U3QW795004411</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>30123423058</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>30123528505</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>SALUD MENTAL ADULTOS BOX 12</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>ZQKP9HA000205</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PC-3729</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-03-22 00:00:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012539</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>U3QK768501067</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>30123423034</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>30123528504</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>LICITACIONES 4° PISO EPB</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000029</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PC-3730</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-04-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012540</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>U36H5N4503767</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>30123423037</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>30123528507</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ANATOMIA SALA REUNIONES</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000031</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PC-3732</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012526</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>U3QK768501772</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>30123423044</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>30123528548</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SALUD MENTAL BOX NUEVO 1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>zqkp9ha000142</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PC-3733</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012525</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>U3RX548504852</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>30123423043</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>30123528547</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BASE SAMU </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>zqkpcha000042</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PC-3734</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>601-7e05-060b2307012524</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>U3qk768500313</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>30123423041</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>30123528545</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>EX-MITIGACION - ZOCALO CDT JEFE CIRUGIA CARDIACA</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>zqkpcha000032</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PC-3698</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>601-7E05'060B2307012535</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>U3KB114401553</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>30123423046</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>30123528541</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>CUIDADOS PALIATIVOS 1° PISO EPA</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000015</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PC-3699</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-04-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012528</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>U3QK768501079</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>30123423039</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>30123528543</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>HUMANIZACION 7 EPC</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000006</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>PC-3700</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012537</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>U3TN841503726</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>30123423040</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>30123528549</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>GESTION DEL CUIDADO 7° PISO EPB</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000014</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PC-3701</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-03-26 00:00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012538</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>U3NC529503199</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>30123423045</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>30123528546</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>GESTION DEL CUIDADO 3° PISO TNA</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000020</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PC-3736</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-03-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012522</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>U3UH745300982</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>30123423053</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>30123528503</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>UCI ADULTO 3 PISO TNB</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000010</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PC-3737</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-03-28 00:00:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012521</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>U36H5N4500522</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>30123423050</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>30123528502</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CIRUGIA 7° TNB</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000199</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PC-3738</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-04-02 00:00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012523</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>U3UH745301405</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30123423051</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>30123528509</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>IASS 7°EPC</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000196</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PC-3739</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-04-04 00:00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012536</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>U3UH745304318</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>30123423052</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>30123528510</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>4 PISO EPB LICITACIONES</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000024</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3797</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-06-07 00:00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012680</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>U36H5N4500537</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>30123422998</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>30123528895</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>4  Piso Epc sala precedimientos electroficiologia</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>21651.219651</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3782</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-06-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012676</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>U36H5N4504260</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>30123422999</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>30123528876</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>OFICINA OIRS</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000216</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3783</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-06-11 00:00:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012678</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>U3UH745306045</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>30123423000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>30123528871</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>3 piso tna SECRETARIA SERVICIO CIRUGIA</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ZQKPCHA000033</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3787</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-06-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012671</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>U3UD518800458</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>30123423032</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>30123528365</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>4 piso epb ges andrea canovas</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000158</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3788</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-06-27 00:00:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012674</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>U3UD518803132</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>30123423033</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>30123528368</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>SERVICIOS GENERALES</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000463</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>601-7D46-420B2307006932</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>U3P65B1400746</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>30123423017</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>30123528361</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>4 piso tna supervisora ginecologia</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000533</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3809</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-08-01 00:00:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>601-7D46-420B2307006937</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>U3P65B1401265</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>30123423018</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>30123528366</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1 piso Admision cdt </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000272</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-08-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012980</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>U36H5N4503717</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>30123423031</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>30131829440</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1 piso Urgencia obstetrica</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>zqkp8ha000320</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1636</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-08-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012872</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>U3U47X7700289</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>30123423020</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>30131829436</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Zocalo Admision General  </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000460</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1638</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-08-29 00:00:00</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012971</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>U36H5N4502276</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>30123423019</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>30131829434</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>1TNB Oncologia Adulto</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000277</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PC-3825</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-09-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>601-7D46-420B2307006993</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>U324WJ6004932</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>30123423015</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>30123528395</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1 upc URGENCIA OBSTETRICA SUPERVISORA</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000251</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PC-3826</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-09-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>601-7D46-420B2307006938</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>U2J47G3401636</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>30123423021</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>30123528514</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>CDT MODULO B BOX 14</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000514</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>PC-3827</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2024-09-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>601-7D46-420B2307006940</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>U324WJ6005059</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>30123423022</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>30123528396</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>FARMACIA ONCOLOGICA</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000248</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PC-3521</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012863</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>U36H5N4502273</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>30123423025</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>30123528532</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>1 piso Farmacia Oncologica</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000276</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PC-3428</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-09-16 00:00:00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2307012871</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>U36H5N4501813</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>30123423023</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>30123528513</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>zocalo anatomia laboratorio fish</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000268</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PC-3829</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-10-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>601-7d46-420b2307006922</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>u2j47g3400655</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>30123423026</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>30123528401</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Servicios Generales Movilizacion</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000543</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PC-3830</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-10-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>601-7d46-420b2307006923</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>u3g28l1302416</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>30123423027</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>30123528355</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>SALUD MENTAL INFANTIL 2 PISO ESTACION ENFERMERIA CAMARAS</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000275</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PC-3831</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-10-10 00:00:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>601-7d46-420b2307006936</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>u3p65b1401278</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>30123423011</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>30123528358</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Encargada Licencias Medicas</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000420</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PC-1749</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-10-17 00:00:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>601-7D46-420B2307006926</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>U3P65B1405027</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>30092844241</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>30131829458</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>RUBEN NEIRA PABELLON</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000516</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>pc-3874</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-02-05 00:00:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>601-7D46-420B2307006921</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>U39HY75902434</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>30133283953</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>24451Y807732</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>SALUD MENTAL SUPERVISORA</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000266</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PC-3910</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-02-06 00:00:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>601-7E05-060B2406002093</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>U3RX548503235</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>30133283952</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>24451Y807305</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>uca</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>ZQKP8HA000515</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>91234</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-02-19 11:01:28.891993</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>isadib</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>dzfv</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>hbz&lt;s</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>kihb&lt;sdi</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ki&lt;bsdf</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>ih&lt;gsdf</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>&lt;szfuoh</t>
         </is>
       </c>
     </row>
